--- a/data/metadata/mapping-regimen-de-tenencia-detalle.xlsx
+++ b/data/metadata/mapping-regimen-de-tenencia-detalle.xlsx
@@ -13,37 +13,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>en-propiedad-por-herencia-o-donacion</t>
+    <t>En propiedad, por herencia o donación</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/regimen-de-tenencia-detalle/en-propiedad-por-herencia-o-donacion</t>
   </si>
   <si>
-    <t>en-alquiler</t>
+    <t>En alquiler</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/regimen-de-tenencia-detalle/en-alquiler</t>
   </si>
   <si>
-    <t>otra-forma</t>
+    <t>Otra forma</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/regimen-de-tenencia-detalle/otra-forma</t>
   </si>
   <si>
-    <t>en-propiedad-por-compra-totalmente-pagada</t>
+    <t>En propiedad, por compra totalmente pagada</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/regimen-de-tenencia-detalle/en-propiedad-por-compra-totalmente-pagada</t>
   </si>
   <si>
-    <t>cedida-gratis-o-a-bajo-precio-por-otro-hogar-la-empresa</t>
+    <t>Cedida gratis o a bajo precio por otro hogar, la empresa,¿</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/regimen-de-tenencia-detalle/cedida-gratis-o-a-bajo-precio-por-otro-hogar-la-empresa</t>
   </si>
   <si>
-    <t>en-propiedad-con-pagos-pendientes-hipotecas</t>
+    <t>En propiedad, con pagos pendientes (hipotecas),¿</t>
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/regimen-de-tenencia-detalle/en-propiedad-con-pagos-pendientes-hipotecas</t>

--- a/data/metadata/mapping-regimen-de-tenencia-detalle.xlsx
+++ b/data/metadata/mapping-regimen-de-tenencia-detalle.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>En propiedad, por herencia o donación</t>
   </si>
@@ -48,42 +48,12 @@
   <si>
     <t>http://opendata.aragon.es/kos/iaest/regimen-de-tenencia-detalle/en-propiedad-con-pagos-pendientes-hipotecas</t>
   </si>
-  <si>
-    <t>Agrario ajena</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/regimen-de-tenencia-detalle/agrario-ajena</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/regimen-de-tenencia-detalle/general</t>
-  </si>
-  <si>
-    <t>Hogar Fijos</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/regimen-de-tenencia-detalle/hogar-fijos</t>
-  </si>
-  <si>
-    <t>Minería</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/regimen-de-tenencia-detalle/mineria</t>
-  </si>
-  <si>
-    <t>Autónomos</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/regimen-de-tenencia-detalle/autonomos</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -94,43 +64,35 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -140,15 +102,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -202,46 +161,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B1"/>
@@ -250,12 +169,7 @@
     <hyperlink r:id="rId4" ref="B4"/>
     <hyperlink r:id="rId5" ref="B5"/>
     <hyperlink r:id="rId6" ref="B6"/>
-    <hyperlink r:id="rId7" ref="B7"/>
-    <hyperlink r:id="rId8" ref="B8"/>
-    <hyperlink r:id="rId9" ref="B9"/>
-    <hyperlink r:id="rId10" ref="B10"/>
-    <hyperlink r:id="rId11" ref="B11"/>
   </hyperlinks>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>